--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_12-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_12-46.xlsx
@@ -83,6 +83,9 @@
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>HEALSEC 20MG 14 CAPS</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -131,6 +131,12 @@
     <t>16:0</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -144,6 +150,9 @@
   </si>
   <si>
     <t>27:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -956,11 +965,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -968,7 +977,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -994,7 +1003,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1020,7 +1029,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1038,7 +1047,7 @@
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1046,7 +1055,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1054,7 +1063,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1168,7 +1177,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1194,7 +1203,7 @@
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1246,7 +1255,7 @@
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1262,13 +1271,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1280,7 +1289,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1288,13 +1297,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1320,11 +1329,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1346,45 +1355,97 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
-      <c r="K28" s="10">
-        <v>1125.0799999999999</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c t="s" r="A29" s="11">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c t="s" r="B28" s="7">
         <v>47</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c t="s" r="F29" s="12">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c t="s" r="H28" s="8">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9">
+        <v>70</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c t="s" r="N28" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
         <v>48</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c t="s" r="I29" s="14">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
         <v>49</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>45</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c t="s" r="N29" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="26.25" customHeight="1">
+      <c r="K30" s="10">
+        <v>1428.0799999999999</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="11">
+        <v>50</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c t="s" r="F31" s="12">
+        <v>51</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c t="s" r="I31" s="14">
+        <v>52</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="89">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1464,10 +1525,16 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:N31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
